--- a/xlsx/nor_oda_incomegroup_fiveyear.xlsx
+++ b/xlsx/nor_oda_incomegroup_fiveyear.xlsx
@@ -369,7 +369,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata1 og Figurdata2 viser data for Landspesifisert bistand fordelt på inntektsgrupper, 2019-2023. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata1 og Figurdata2 viser data for Landspesifisert bistand fordelt på inntektsgrupper, 2020-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -413,12 +413,12 @@
         </is>
       </c>
       <c r="C2">
-        <v>2.66186522636</v>
+        <v>2.06113445615</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -426,12 +426,12 @@
         </is>
       </c>
       <c r="C3">
-        <v>3.71127176922</v>
+        <v>3.50697574209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -439,12 +439,12 @@
         </is>
       </c>
       <c r="C4">
-        <v>6.51898145782</v>
+        <v>7.22210325309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -452,12 +452,12 @@
         </is>
       </c>
       <c r="C5">
-        <v>2.06113445615</v>
+        <v>2.23170855832</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -465,12 +465,12 @@
         </is>
       </c>
       <c r="C6">
-        <v>3.50697574209</v>
+        <v>3.10271906661</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -478,12 +478,12 @@
         </is>
       </c>
       <c r="C7">
-        <v>7.22210325309</v>
+        <v>6.69466398941</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -491,12 +491,12 @@
         </is>
       </c>
       <c r="C8">
-        <v>2.22720855832</v>
+        <v>2.69325219887</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -504,12 +504,12 @@
         </is>
       </c>
       <c r="C9">
-        <v>3.10271906661</v>
+        <v>7.80798328266</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -517,12 +517,12 @@
         </is>
       </c>
       <c r="C10">
-        <v>6.69466398941</v>
+        <v>8.246736353719999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -530,12 +530,12 @@
         </is>
       </c>
       <c r="C11">
-        <v>2.68898045987</v>
+        <v>3.25928176375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -543,12 +543,12 @@
         </is>
       </c>
       <c r="C12">
-        <v>7.80798328266</v>
+        <v>11.07768723892</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -556,12 +556,12 @@
         </is>
       </c>
       <c r="C13">
-        <v>8.246736353719999</v>
+        <v>9.56437152612</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -569,12 +569,12 @@
         </is>
       </c>
       <c r="C14">
-        <v>3.25478176375</v>
+        <v>5.02959194778</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -582,12 +582,12 @@
         </is>
       </c>
       <c r="C15">
-        <v>11.07768723892</v>
+        <v>10.8772832644</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="C16">
-        <v>9.56437152612</v>
+        <v>7.28517270887</v>
       </c>
     </row>
   </sheetData>
@@ -635,72 +635,72 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B2">
-        <v>12.8921184534</v>
+        <v>12.79021345133</v>
       </c>
       <c r="C2">
-        <v>6.51898145782</v>
+        <v>7.22210325309</v>
       </c>
       <c r="D2">
-        <v>0.5056563420033399</v>
+        <v>0.5646585399510282</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B3">
-        <v>12.79021345133</v>
+        <v>12.02909161434</v>
       </c>
       <c r="C3">
-        <v>7.22210325309</v>
+        <v>6.69466398941</v>
       </c>
       <c r="D3">
-        <v>0.5646585399510282</v>
+        <v>0.5565394465388579</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B4">
-        <v>12.02459161434</v>
+        <v>18.74797183525</v>
       </c>
       <c r="C4">
-        <v>6.69466398941</v>
+        <v>8.246736353719999</v>
       </c>
       <c r="D4">
-        <v>0.5567477220121337</v>
+        <v>0.4398735194499523</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B5">
-        <v>18.74370009625</v>
+        <v>23.90134052879</v>
       </c>
       <c r="C5">
-        <v>8.246736353719999</v>
+        <v>9.56437152612</v>
       </c>
       <c r="D5">
-        <v>0.439973767792513</v>
+        <v>0.4001604644140934</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B6">
-        <v>23.89684052879</v>
+        <v>23.19204792105</v>
       </c>
       <c r="C6">
-        <v>9.56437152612</v>
+        <v>7.28517270887</v>
       </c>
       <c r="D6">
-        <v>0.4002358183960432</v>
+        <v>0.3141237347245086</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/nor_oda_incomegroup_fiveyear.xlsx
+++ b/xlsx/nor_oda_incomegroup_fiveyear.xlsx
@@ -369,7 +369,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata1 og Figurdata2 viser data for Landspesifisert bistand fordelt på inntektsgrupper, 2020-2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata1 og Figurdata2 inneholder data om norsk landspesifisert bistand fordelt på inntektsgrupper. 2020-2024. Beløp er utbetalinger i NOK mrd.</t>
         </is>
       </c>
     </row>

--- a/xlsx/nor_oda_incomegroup_fiveyear.xlsx
+++ b/xlsx/nor_oda_incomegroup_fiveyear.xlsx
@@ -369,7 +369,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arkfane Figurdata1 og Figurdata2 inneholder data om norsk landspesifisert bistand fordelt på inntektsgrupper. 2020-2024. Beløp er utbetalinger i NOK mrd.</t>
+          <t>Arkfane Figurdata1 og Figurdata2 inneholder data om norsk landspesifisert bistand fordelt på inntektsgrupper. 2020-2024. Beløp er utbetalinger i NOK mrd. og andel av landspesifisert øremerket bistand.</t>
         </is>
       </c>
     </row>
